--- a/Tables/Diversity_ANOVAs_all_samples.xlsx
+++ b/Tables/Diversity_ANOVAs_all_samples.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/liberjul_msu_edu/Documents/Documents/MSU/Undergrad/Fall 2018/PLP 847/miseq_dat/Leaf_litter_communities/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive - Michigan State University\Documents\MSU\Undergrad\Fall 2018\PLP 847\miseq_dat\Leaf_litter_communities\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D9849422-2CB1-45E0-AFDD-BD6A88BBD505}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{132B0995-8F3A-439B-B7A4-284FB338D16D}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{D9849422-2CB1-45E0-AFDD-BD6A88BBD505}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{17163141-E3DD-42B0-A724-7A4D9DDBD245}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Shannon_ANOVA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,9 +48,6 @@
     <t xml:space="preserve">Substrate    </t>
   </si>
   <si>
-    <t>Plant_species</t>
-  </si>
-  <si>
     <t xml:space="preserve">Site         </t>
   </si>
   <si>
@@ -62,6 +58,9 @@
   </si>
   <si>
     <t>Inverse Simpson Index</t>
+  </si>
+  <si>
+    <t>Host species</t>
   </si>
 </sst>
 </file>
@@ -906,7 +905,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -917,7 +916,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -959,7 +958,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -979,7 +978,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -999,7 +998,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>37</v>
@@ -1013,7 +1012,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1055,7 +1054,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1075,7 +1074,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -1095,7 +1094,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>37</v>
@@ -1113,6 +1112,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AFDA51084187F242B05EFA296C5963FF" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3643f2840fd34a552c287b84deed346">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3ea71f81-dc8a-4f4b-b0dd-c828e930e924" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7bc954b55e77a02dd874654cc5b225bc" ns3:_="">
     <xsd:import namespace="3ea71f81-dc8a-4f4b-b0dd-c828e930e924"/>
@@ -1296,22 +1310,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D11DEB2D-45BC-42EA-89BC-62F542249822}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{143FC4FF-7B30-4BCE-8A13-6265F8624DD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ea71f81-dc8a-4f4b-b0dd-c828e930e924"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71BBC4BB-8B50-44DC-B24B-6DD919ACBDF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1327,28 +1350,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{143FC4FF-7B30-4BCE-8A13-6265F8624DD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ea71f81-dc8a-4f4b-b0dd-c828e930e924"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D11DEB2D-45BC-42EA-89BC-62F542249822}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>